--- a/app/Reportes/Ventas.xlsx
+++ b/app/Reportes/Ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,31 +493,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>CENTRO PRODUCCION S.A.S.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22222222</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>901913125</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CALLE 2 NO. 2 - 2, VILLAPINZÓN </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t xml:space="preserve">CARRERA 49B #29B - 27 SUR, BOGOTÁ, D.C. </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3207031760</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>zzzz@gmail.com</t>
+          <t>centroproducc@outlook.com</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9781.52</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1858.49</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -526,41 +530,29 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CARNES FACA S.A.S</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>901097122</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CALLE 10A NO. 1 - 21 SUR, FACA </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3174325821</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>carnesfaca.10@gmail.com</t>
-        </is>
-      </c>
+          <t>222222222222</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>56386.55</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10713.44</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -569,80 +561,6 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CENTRO PRODUCCION S.A.S.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>901913125</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CARRERA 49B #29B - 27 SUR, BOGOTÁ, D.C. </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3207031760</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>centroproducc@outlook.com</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>9781.52</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1858.49</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>222222222222</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>56386.55</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10713.44</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
